--- a/data/trans_bre/P12B1_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,08</t>
+          <t>0,0; 8,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-29,65</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-40,3</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-39,76</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-78,74%</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-79,31%</t>
+          <t>-33,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-92,52%</t>
+          <t>-81,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-59,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-88,47%</t>
         </is>
       </c>
     </row>
@@ -722,30 +768,40 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-74,57; 1,37</t>
+          <t>-3,12; 1,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,43; -2,19</t>
+          <t>-20,44; 0,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,97; -1,4</t>
+          <t>-3,21; 0,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,71; -0,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 30,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,06</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>125,9%</t>
+          <t>-10,43%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,29%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-8,87%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 36,06</t>
+          <t>-2,65; 2,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 31,17</t>
+          <t>-3,14; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 33,25</t>
+          <t>-2,65; 2,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 2,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -828,13 +894,23 @@
       <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-88,43; 573,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-54,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-73,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-76,94%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 5,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,76; -1,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,82; -0,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-94,9; 69,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 6,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,34</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-3,49</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-73,59%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-27,91%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-74,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 1,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 0,37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 0,83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-13,67; 0,21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-85,97; 445,12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 91,07</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-96,69; 27,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12B1_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,151 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>1.514311758619071</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr"/>
+      <c r="J4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.050341429250599</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,65</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-7,05</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-33,55%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-81,87%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-59,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-88,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 1,73</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-20,44; 0,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 0,92</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,71; -0,36</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.4230952897662194</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.687642716789376</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.6262109508467828</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-6.926798817073752</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.2752712922546656</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.7775592127859765</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.5629096259954794</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.8742366714407361</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>21,72%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-10,43%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-8,87%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.702782711157973</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.03583660244722</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.865498407545209</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-24.63285346631019</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 2,23</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 1,85</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,65; 2,17</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 2,8</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-88,43; 573,79</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.172637711616612</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.534599362175835</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.9672037431524606</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-0.2033382252018415</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +779,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.2897740674111988</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.04400981674485133</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3823255585994407</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.2315339438288488</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.3624594379586954</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.05129281985386049</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4637713882449383</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.09772927286003624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.008214113946942</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.775029593070658</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.037011293409393</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.996209172437883</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.8856126318775962</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.205061675387038</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.811179372161412</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.450159098568563</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.818343020577513</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>5.604717514292011</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,49</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-73,59%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-27,91%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-74,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 1,45</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,22; 0,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,79; 0,83</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; 0,21</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-85,97; 445,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 91,07</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-96,69; 27,51</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.1194088269435824</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.8506028071771</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.168916588442936</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.50595953162053</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1149476420984047</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.6867936373017806</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1968595040102409</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.7438549624906288</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.413856569159039</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.314513435898736</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.679698391364831</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-13.87796255895838</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.849391241908881</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-0.9718386005663457</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.546378850725503</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4875197703698055</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.9119929415201564</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.2552384354394228</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.088060963041379</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.375745686044844</v>
+      </c>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>0.3084720465090689</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
